--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35205.4907895037</v>
+        <v>7005892.667111235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35205.4907895037</v>
+        <v>7005892.667111235</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24478.98157684667</v>
+        <v>1618948.502392788</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24478.98157684667</v>
+        <v>1618948.502392788</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419752923.990741</v>
+        <v>57352602.49092226</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13002.45578822892</v>
+        <v>1381003.4607115</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24510.22688567153</v>
+        <v>2515516.600973852</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36017.99798311412</v>
+        <v>3650029.741236208</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48021.27819144507</v>
+        <v>4782527.386817979</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60024.55839977601</v>
+        <v>5915025.032399749</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72027.83860810696</v>
+        <v>7047522.677981517</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84031.11881643788</v>
+        <v>8180020.323563282</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96034.39902476881</v>
+        <v>9312517.969145048</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108035.5250828932</v>
+        <v>10444230.83284014</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120038.2349794014</v>
+        <v>11576258.88037361</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132040.9448759097</v>
+        <v>12708286.92790709</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144043.6547724179</v>
+        <v>13840314.97544057</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156046.3646689261</v>
+        <v>14972343.02297406</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>168638.134728184</v>
+        <v>16046681.82415712</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181229.9047874418</v>
+        <v>17121020.62534019</v>
       </c>
     </row>
   </sheetData>
